--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_6_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2069758.705031815</v>
+        <v>2068063.846797923</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>18.29749587628863</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>68.21015448122992</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>43.04672406348644</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>174.0497804792065</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>55.71194092525318</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>31.29018747496455</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>16.54418549352951</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>190.3453970742848</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>86.79774935192522</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>165.4821831907451</v>
       </c>
     </row>
     <row r="10">
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.7795714149543</v>
+        <v>357.7795714149541</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>329.7287713721567</v>
+        <v>329.7287713721565</v>
       </c>
       <c r="E11" t="n">
-        <v>356.9760998237355</v>
+        <v>356.9760998237354</v>
       </c>
       <c r="F11" t="n">
-        <v>381.9217754931852</v>
+        <v>381.921775493185</v>
       </c>
       <c r="G11" t="n">
-        <v>387.9966247312783</v>
+        <v>387.9966247312781</v>
       </c>
       <c r="H11" t="n">
-        <v>290.4347245022875</v>
+        <v>290.4347245022873</v>
       </c>
       <c r="I11" t="n">
-        <v>94.85220997855063</v>
+        <v>1.989430120840834</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.4731875638754</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>187.8463886171959</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U11" t="n">
-        <v>226.2032352564838</v>
+        <v>226.2032352564836</v>
       </c>
       <c r="V11" t="n">
-        <v>302.7979882216086</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.4364112332173</v>
+        <v>324.2866984688866</v>
       </c>
       <c r="X11" t="n">
-        <v>344.7768304299428</v>
+        <v>344.7768304299426</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>361.2836684075272</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I12" t="n">
-        <v>46.07197699567759</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.02995793686989</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S12" t="n">
         <v>148.3099331995005</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>142.2925508501016</v>
+        <v>142.2925508501014</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>123.6612027696859</v>
       </c>
       <c r="E13" t="n">
-        <v>121.4796923980429</v>
+        <v>121.4796923980427</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51643918190422</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>141.9817535136542</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>127.8933879574563</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68898016826781</v>
       </c>
       <c r="S13" t="n">
-        <v>180.6773288969402</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>198.4837816320202</v>
       </c>
       <c r="U13" t="n">
-        <v>261.3072160754404</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>227.1833730753018</v>
+        <v>227.1833730753016</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>200.7553851405107</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357.7795714149543</v>
+        <v>357.7795714149541</v>
       </c>
       <c r="C14" t="n">
-        <v>81.9910551064732</v>
+        <v>340.3186215224811</v>
       </c>
       <c r="D14" t="n">
-        <v>329.7287713721566</v>
+        <v>329.7287713721565</v>
       </c>
       <c r="E14" t="n">
-        <v>356.9760998237355</v>
+        <v>356.9760998237354</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>381.921775493185</v>
       </c>
       <c r="G14" t="n">
-        <v>387.9966247312782</v>
+        <v>387.9966247312781</v>
       </c>
       <c r="H14" t="n">
-        <v>290.4347245022874</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>94.85220997855058</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4731875638753</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>187.8463886171958</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>226.2032352564836</v>
       </c>
       <c r="V14" t="n">
-        <v>302.7979882216086</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>324.2866984688867</v>
+        <v>276.392231569533</v>
       </c>
       <c r="X14" t="n">
-        <v>344.7768304299427</v>
+        <v>344.7768304299426</v>
       </c>
       <c r="Y14" t="n">
-        <v>361.2836684075273</v>
+        <v>361.2836684075272</v>
       </c>
     </row>
     <row r="15">
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.6612027696861</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>84.94613566670543</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>120.4667777744049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>141.9817535136541</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>71.8167029519215</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>198.4837816320202</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>227.1833730753017</v>
+        <v>227.1833730753016</v>
       </c>
       <c r="W16" t="n">
-        <v>261.5687280880647</v>
+        <v>261.5687280880646</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>200.7553851405107</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.6303831035685</v>
+        <v>193.6303831035684</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>232.671219357909</v>
       </c>
       <c r="I17" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417215</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949689</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U17" t="n">
         <v>168.4397301121053</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.11420478903254</v>
+        <v>97.11420478903257</v>
       </c>
       <c r="C19" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572311</v>
       </c>
       <c r="D19" t="n">
-        <v>47.38682321645821</v>
+        <v>65.89769762530763</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.71618725366444</v>
       </c>
       <c r="F19" t="n">
-        <v>62.70327263002649</v>
+        <v>62.70327263002652</v>
       </c>
       <c r="G19" t="n">
-        <v>84.21824836927563</v>
+        <v>84.21824836927566</v>
       </c>
       <c r="H19" t="n">
-        <v>70.129882813078</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I19" t="n">
-        <v>41.00730760263663</v>
+        <v>41.00730760263666</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S19" t="n">
         <v>122.9138237525617</v>
@@ -2068,7 +2068,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y19" t="n">
-        <v>135.86687795919</v>
+        <v>6.498840123255079</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>232.671219357909</v>
       </c>
       <c r="I20" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417215</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.70968241949686</v>
+        <v>72.70968241949687</v>
       </c>
       <c r="T20" t="n">
         <v>130.0828834728174</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.11420478903254</v>
+        <v>97.11420478903257</v>
       </c>
       <c r="C22" t="n">
-        <v>21.05870549509654</v>
+        <v>84.52904570572311</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.89769762530763</v>
       </c>
       <c r="E22" t="n">
-        <v>63.71618725366442</v>
+        <v>63.71618725366444</v>
       </c>
       <c r="F22" t="n">
-        <v>62.70327263002649</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>84.21824836927563</v>
+        <v>84.21824836927566</v>
       </c>
       <c r="H22" t="n">
-        <v>70.12988281307801</v>
+        <v>70.12988281307803</v>
       </c>
       <c r="I22" t="n">
-        <v>41.00730760263664</v>
+        <v>41.00730760263666</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.14097617342082</v>
+        <v>47.14097617342084</v>
       </c>
       <c r="S22" t="n">
         <v>122.9138237525617</v>
@@ -2299,7 +2299,7 @@
         <v>169.4198679309233</v>
       </c>
       <c r="W22" t="n">
-        <v>203.8052229436863</v>
+        <v>137.1404577377771</v>
       </c>
       <c r="X22" t="n">
         <v>142.9918799961324</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.70968241949686</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U23" t="n">
         <v>168.4397301121053</v>
@@ -2491,10 +2491,10 @@
         <v>84.21824836927563</v>
       </c>
       <c r="H25" t="n">
-        <v>70.12988281307801</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I25" t="n">
-        <v>41.00730760263664</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S25" t="n">
         <v>122.9138237525617</v>
@@ -2530,7 +2530,7 @@
         <v>140.7202764876419</v>
       </c>
       <c r="U25" t="n">
-        <v>121.3166492685477</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V25" t="n">
         <v>169.4198679309233</v>
@@ -2542,7 +2542,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.86687795919</v>
+        <v>6.498840123255304</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C26" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D26" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E26" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793571</v>
       </c>
       <c r="F26" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G26" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H26" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I26" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417219</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T26" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U26" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V26" t="n">
         <v>245.0344830772302</v>
@@ -2621,7 +2621,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y26" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.11420478903254</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572315</v>
       </c>
       <c r="D28" t="n">
-        <v>65.8976976253076</v>
+        <v>65.89769762530767</v>
       </c>
       <c r="E28" t="n">
-        <v>63.71618725366442</v>
+        <v>63.71618725366449</v>
       </c>
       <c r="F28" t="n">
-        <v>62.70327263002649</v>
+        <v>62.70327263002656</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>84.2182483692757</v>
       </c>
       <c r="H28" t="n">
-        <v>70.129882813078</v>
+        <v>70.12988281307807</v>
       </c>
       <c r="I28" t="n">
-        <v>41.00730760263663</v>
+        <v>41.0073076026367</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342088</v>
       </c>
       <c r="S28" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T28" t="n">
-        <v>95.57048702098301</v>
+        <v>108.4664434407381</v>
       </c>
       <c r="U28" t="n">
         <v>203.5437109310619</v>
@@ -2776,10 +2776,10 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X28" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961325</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C29" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D29" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E29" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793571</v>
       </c>
       <c r="F29" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G29" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H29" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I29" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417219</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949693</v>
       </c>
       <c r="T29" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U29" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V29" t="n">
         <v>245.0344830772302</v>
@@ -2858,7 +2858,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y29" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.11420478903254</v>
+        <v>97.11420478903261</v>
       </c>
       <c r="C31" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572315</v>
       </c>
       <c r="D31" t="n">
-        <v>65.8976976253076</v>
+        <v>65.89769762530767</v>
       </c>
       <c r="E31" t="n">
-        <v>63.71618725366442</v>
+        <v>63.71618725366449</v>
       </c>
       <c r="F31" t="n">
-        <v>62.70327263002649</v>
+        <v>62.70327263002656</v>
       </c>
       <c r="G31" t="n">
-        <v>84.21824836927563</v>
+        <v>84.2182483692757</v>
       </c>
       <c r="H31" t="n">
-        <v>70.129882813078</v>
+        <v>70.12988281307808</v>
       </c>
       <c r="I31" t="n">
-        <v>41.00730760263663</v>
+        <v>41.00730760263671</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342089</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T31" t="n">
-        <v>11.35223865170709</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U31" t="n">
         <v>203.5437109310619</v>
@@ -3013,10 +3013,10 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X31" t="n">
-        <v>142.9918799961324</v>
+        <v>13.62384216019618</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>72.70968241949686</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T32" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U32" t="n">
         <v>168.4397301121053</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.11420478903254</v>
+        <v>33.64386457840564</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D34" t="n">
-        <v>65.8976976253076</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>63.71618725366442</v>
@@ -3202,10 +3202,10 @@
         <v>84.21824836927563</v>
       </c>
       <c r="H34" t="n">
-        <v>70.12988281307801</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I34" t="n">
-        <v>41.00730760263664</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.14097617342082</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S34" t="n">
-        <v>78.07483162234962</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T34" t="n">
         <v>140.7202764876419</v>
@@ -3275,16 +3275,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F35" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G35" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H35" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I35" t="n">
-        <v>37.08870483417206</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.7096824194968</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T35" t="n">
         <v>130.0828834728173</v>
@@ -3323,13 +3323,13 @@
         <v>168.4397301121053</v>
       </c>
       <c r="V35" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W35" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X35" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y35" t="n">
         <v>303.5201632631488</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11420478903248</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C37" t="n">
-        <v>84.52904570572302</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.89769762530754</v>
+        <v>21.05870549509645</v>
       </c>
       <c r="E37" t="n">
-        <v>63.71618725366436</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F37" t="n">
-        <v>62.70327263002643</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G37" t="n">
-        <v>84.21824836927557</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H37" t="n">
-        <v>70.12988281307796</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I37" t="n">
-        <v>41.00730760263658</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.14097617342075</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S37" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T37" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U37" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V37" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W37" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X37" t="n">
-        <v>13.62384216019866</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y37" t="n">
         <v>135.86687795919</v>
@@ -3664,22 +3664,22 @@
         <v>84.52904570572308</v>
       </c>
       <c r="D40" t="n">
-        <v>41.25315464567394</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70327263002649</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>84.21824836927563</v>
       </c>
       <c r="H40" t="n">
-        <v>70.12988281307801</v>
+        <v>3.465117607169914</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>41.00730760263664</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C41" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D41" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E41" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793571</v>
       </c>
       <c r="F41" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G41" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H41" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I41" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417219</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T41" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U41" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V41" t="n">
         <v>245.0344830772302</v>
@@ -3806,7 +3806,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>72.46966180939728</v>
       </c>
       <c r="C43" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572315</v>
       </c>
       <c r="D43" t="n">
-        <v>65.8976976253076</v>
+        <v>65.89769762530767</v>
       </c>
       <c r="E43" t="n">
-        <v>63.71618725366442</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>62.70327263002649</v>
+        <v>62.70327263002656</v>
       </c>
       <c r="G43" t="n">
-        <v>84.21824836927563</v>
+        <v>84.2182483692757</v>
       </c>
       <c r="H43" t="n">
-        <v>37.87604976617626</v>
+        <v>70.12988281307807</v>
       </c>
       <c r="I43" t="n">
-        <v>41.00730760263663</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342088</v>
       </c>
       <c r="S43" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T43" t="n">
         <v>140.7202764876419</v>
@@ -3961,10 +3961,10 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X43" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961325</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C44" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D44" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E44" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793571</v>
       </c>
       <c r="F44" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G44" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H44" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I44" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417219</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.70968241949683</v>
+        <v>72.70968241949444</v>
       </c>
       <c r="T44" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U44" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V44" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W44" t="n">
         <v>266.5231933245083</v>
@@ -4043,7 +4043,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y44" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.11420478903253</v>
+        <v>97.11420478903261</v>
       </c>
       <c r="C46" t="n">
-        <v>84.52904570572306</v>
+        <v>84.52904570572315</v>
       </c>
       <c r="D46" t="n">
-        <v>65.89769762530759</v>
+        <v>65.89769762530767</v>
       </c>
       <c r="E46" t="n">
-        <v>63.7161872536644</v>
+        <v>63.71618725366449</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.70327263002656</v>
       </c>
       <c r="G46" t="n">
-        <v>84.21824836927561</v>
+        <v>84.2182483692757</v>
       </c>
       <c r="H46" t="n">
-        <v>70.12988281307798</v>
+        <v>70.12988281307807</v>
       </c>
       <c r="I46" t="n">
-        <v>41.00730760263662</v>
+        <v>41.0073076026367</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>47.14097617342088</v>
       </c>
       <c r="S46" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T46" t="n">
-        <v>121.1964874551547</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U46" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V46" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W46" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X46" t="n">
-        <v>142.9918799961324</v>
+        <v>13.62384216019655</v>
       </c>
       <c r="Y46" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C2" t="n">
         <v>53.75394372784808</v>
@@ -4355,25 +4355,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V2" t="n">
-        <v>53.75394372784808</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W2" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X2" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.7040404982626</v>
+        <v>752.3602790325011</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,16 +4410,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
         <v>781.4136778972854</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>920.5756160525691</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>920.5756160525691</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>920.5756160525691</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>920.5756160525691</v>
       </c>
       <c r="V3" t="n">
-        <v>399.5118995681682</v>
+        <v>920.5756160525691</v>
       </c>
       <c r="W3" t="n">
-        <v>223.7040404982626</v>
+        <v>920.5756160525691</v>
       </c>
       <c r="X3" t="n">
-        <v>223.7040404982626</v>
+        <v>920.5756160525691</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.7040404982626</v>
+        <v>920.5756160525691</v>
       </c>
     </row>
     <row r="4">
@@ -4519,19 +4519,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4547,19 +4547,19 @@
         <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4601,7 +4601,7 @@
         <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
         <v>559.1338160830064</v>
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>739.4943568267907</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="C6" t="n">
-        <v>565.0413275456638</v>
+        <v>51.64152573771011</v>
       </c>
       <c r="D6" t="n">
-        <v>416.1069178844125</v>
+        <v>51.64152573771011</v>
       </c>
       <c r="E6" t="n">
-        <v>256.869462878957</v>
+        <v>51.64152573771011</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>51.64152573771011</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W6" t="n">
-        <v>947.3458570323236</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="X6" t="n">
-        <v>739.4943568267907</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="Y6" t="n">
-        <v>739.4943568267907</v>
+        <v>226.0945550188371</v>
       </c>
     </row>
     <row r="7">
@@ -4781,22 +4781,22 @@
         <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>467.067986854209</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>223.6192102101089</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F8" t="n">
-        <v>216.6737094609055</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G8" t="n">
-        <v>201.2163988395569</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H8" t="n">
-        <v>201.2163988395569</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4835,16 +4835,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
         <v>710.516763498309</v>
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>474.7416984028202</v>
+        <v>628.6880980958762</v>
       </c>
       <c r="C9" t="n">
-        <v>474.7416984028202</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="D9" t="n">
-        <v>325.807288741569</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4890,43 +4890,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>876.3826612157623</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>702.9653166664311</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>702.9653166664311</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>474.7416984028202</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>474.7416984028202</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>474.7416984028202</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>474.7416984028202</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>474.7416984028202</v>
+        <v>796.9034351159441</v>
       </c>
     </row>
     <row r="10">
@@ -4945,10 +4945,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1933.721375134961</v>
+        <v>1839.920587399899</v>
       </c>
       <c r="C11" t="n">
-        <v>1933.721375134961</v>
+        <v>1839.920587399899</v>
       </c>
       <c r="D11" t="n">
-        <v>1600.662010112581</v>
+        <v>1506.861222377519</v>
       </c>
       <c r="E11" t="n">
-        <v>1240.080091098706</v>
+        <v>1146.279303363645</v>
       </c>
       <c r="F11" t="n">
-        <v>854.3005198934688</v>
+        <v>760.4997321584076</v>
       </c>
       <c r="G11" t="n">
-        <v>462.384737336622</v>
+        <v>368.583949601561</v>
       </c>
       <c r="H11" t="n">
-        <v>169.016328748453</v>
+        <v>75.21554101339257</v>
       </c>
       <c r="I11" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J11" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K11" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L11" t="n">
         <v>1205.679240092235</v>
@@ -5066,25 +5066,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S11" t="n">
-        <v>3528.509683390924</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="T11" t="n">
-        <v>3338.765856504868</v>
+        <v>3470.556955054237</v>
       </c>
       <c r="U11" t="n">
-        <v>3110.277740084177</v>
+        <v>3242.068838633546</v>
       </c>
       <c r="V11" t="n">
-        <v>2804.421186324976</v>
+        <v>3242.068838633546</v>
       </c>
       <c r="W11" t="n">
-        <v>2643.374306291423</v>
+        <v>2914.506516947802</v>
       </c>
       <c r="X11" t="n">
-        <v>2295.114881614713</v>
+        <v>2566.247092271093</v>
       </c>
       <c r="Y11" t="n">
-        <v>2295.114881614713</v>
+        <v>2201.314093879651</v>
       </c>
     </row>
     <row r="12">
@@ -5106,10 +5106,10 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H12" t="n">
         <v>119.7433661394903</v>
@@ -5118,25 +5118,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J12" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K12" t="n">
-        <v>399.7270172373159</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L12" t="n">
-        <v>900.1791953676907</v>
+        <v>650.0054335400104</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.114490969363</v>
+        <v>1285.988742254183</v>
       </c>
       <c r="N12" t="n">
-        <v>1743.637398825259</v>
+        <v>1954.511650110079</v>
       </c>
       <c r="O12" t="n">
-        <v>2288.789574711021</v>
+        <v>2109.740129911879</v>
       </c>
       <c r="P12" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q12" t="n">
         <v>2657.936419551312</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.3680721475966</v>
+        <v>593.7381711693984</v>
       </c>
       <c r="C13" t="n">
-        <v>418.6382228040596</v>
+        <v>450.0083218258615</v>
       </c>
       <c r="D13" t="n">
-        <v>418.6382228040596</v>
+        <v>325.0980159978959</v>
       </c>
       <c r="E13" t="n">
-        <v>295.9314628060366</v>
+        <v>202.3912559998729</v>
       </c>
       <c r="F13" t="n">
-        <v>216.6219282788606</v>
+        <v>202.3912559998729</v>
       </c>
       <c r="G13" t="n">
-        <v>73.20601563880587</v>
+        <v>202.3912559998729</v>
       </c>
       <c r="H13" t="n">
         <v>73.20601563880587</v>
@@ -5197,52 +5197,52 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J13" t="n">
-        <v>79.32466191965295</v>
+        <v>79.32466191965307</v>
       </c>
       <c r="K13" t="n">
-        <v>203.3235852420083</v>
+        <v>203.3235852420086</v>
       </c>
       <c r="L13" t="n">
-        <v>410.6171321895909</v>
+        <v>410.6171321895914</v>
       </c>
       <c r="M13" t="n">
-        <v>638.2252920475059</v>
+        <v>638.2252920475065</v>
       </c>
       <c r="N13" t="n">
-        <v>866.443478218368</v>
+        <v>866.4434782183687</v>
       </c>
       <c r="O13" t="n">
         <v>1063.109528897734</v>
       </c>
       <c r="P13" t="n">
-        <v>1211.436193392006</v>
+        <v>1211.436193392007</v>
       </c>
       <c r="Q13" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="R13" t="n">
-        <v>1238.295262094751</v>
+        <v>1226.488211419734</v>
       </c>
       <c r="S13" t="n">
-        <v>1055.792909673599</v>
+        <v>1226.488211419734</v>
       </c>
       <c r="T13" t="n">
-        <v>1055.792909673599</v>
+        <v>1025.999543104562</v>
       </c>
       <c r="U13" t="n">
-        <v>791.8462267691136</v>
+        <v>1025.999543104562</v>
       </c>
       <c r="V13" t="n">
-        <v>562.3680721475966</v>
+        <v>796.5213884830455</v>
       </c>
       <c r="W13" t="n">
-        <v>562.3680721475966</v>
+        <v>796.5213884830455</v>
       </c>
       <c r="X13" t="n">
-        <v>562.3680721475966</v>
+        <v>593.7381711693984</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.3680721475966</v>
+        <v>593.7381711693984</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1630.76105151202</v>
+        <v>1888.298836793186</v>
       </c>
       <c r="C14" t="n">
-        <v>1547.941803929723</v>
+        <v>1544.542653437145</v>
       </c>
       <c r="D14" t="n">
-        <v>1214.882438907343</v>
+        <v>1211.483288414764</v>
       </c>
       <c r="E14" t="n">
-        <v>854.3005198934688</v>
+        <v>850.9013694008898</v>
       </c>
       <c r="F14" t="n">
-        <v>854.3005198934688</v>
+        <v>465.1217981956525</v>
       </c>
       <c r="G14" t="n">
-        <v>462.384737336622</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="H14" t="n">
-        <v>169.0163287484529</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I14" t="n">
         <v>73.20601563880587</v>
@@ -5282,7 +5282,7 @@
         <v>658.1763815223501</v>
       </c>
       <c r="L14" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092234</v>
       </c>
       <c r="M14" t="n">
         <v>1831.488208231171</v>
@@ -5303,25 +5303,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S14" t="n">
-        <v>3528.509683390924</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="T14" t="n">
-        <v>3338.765856504868</v>
+        <v>3470.556955054237</v>
       </c>
       <c r="U14" t="n">
-        <v>3338.765856504868</v>
+        <v>3242.068838633546</v>
       </c>
       <c r="V14" t="n">
-        <v>3032.909302745667</v>
+        <v>3242.068838633546</v>
       </c>
       <c r="W14" t="n">
-        <v>2705.346981059923</v>
+        <v>2962.884766341089</v>
       </c>
       <c r="X14" t="n">
-        <v>2357.087556383213</v>
+        <v>2614.625341664379</v>
       </c>
       <c r="Y14" t="n">
-        <v>1992.154557991771</v>
+        <v>2249.692343272938</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J15" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K15" t="n">
-        <v>137.906432594863</v>
+        <v>254.8646126176075</v>
       </c>
       <c r="L15" t="n">
-        <v>271.2266688748132</v>
+        <v>755.3167907479822</v>
       </c>
       <c r="M15" t="n">
-        <v>907.2099775889856</v>
+        <v>930.2520863496545</v>
       </c>
       <c r="N15" t="n">
-        <v>1575.732885444882</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O15" t="n">
-        <v>2120.885061330644</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P15" t="n">
-        <v>2541.414676266367</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.936419551312</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>549.0200254614832</v>
+        <v>145.7481398326661</v>
       </c>
       <c r="C16" t="n">
-        <v>549.0200254614832</v>
+        <v>145.7481398326661</v>
       </c>
       <c r="D16" t="n">
-        <v>424.1097196335175</v>
+        <v>145.7481398326661</v>
       </c>
       <c r="E16" t="n">
-        <v>338.3055421924009</v>
+        <v>145.7481398326661</v>
       </c>
       <c r="F16" t="n">
-        <v>216.6219282788605</v>
+        <v>145.7481398326661</v>
       </c>
       <c r="G16" t="n">
-        <v>73.20601563880587</v>
+        <v>145.7481398326661</v>
       </c>
       <c r="H16" t="n">
         <v>73.20601563880587</v>
@@ -5434,52 +5434,52 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J16" t="n">
-        <v>79.32466191965301</v>
+        <v>79.32466191965315</v>
       </c>
       <c r="K16" t="n">
-        <v>203.3235852420084</v>
+        <v>203.3235852420087</v>
       </c>
       <c r="L16" t="n">
-        <v>410.6171321895911</v>
+        <v>410.6171321895915</v>
       </c>
       <c r="M16" t="n">
-        <v>638.2252920475062</v>
+        <v>638.2252920475069</v>
       </c>
       <c r="N16" t="n">
-        <v>866.4434782183682</v>
+        <v>866.4434782183691</v>
       </c>
       <c r="O16" t="n">
-        <v>1063.109528897734</v>
+        <v>1063.109528897735</v>
       </c>
       <c r="P16" t="n">
-        <v>1211.436193392007</v>
+        <v>1211.436193392008</v>
       </c>
       <c r="Q16" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="R16" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="S16" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="T16" t="n">
-        <v>1238.295262094751</v>
+        <v>1037.80659377958</v>
       </c>
       <c r="U16" t="n">
-        <v>1238.295262094751</v>
+        <v>1037.80659377958</v>
       </c>
       <c r="V16" t="n">
-        <v>1008.817107473234</v>
+        <v>808.3284391580637</v>
       </c>
       <c r="W16" t="n">
-        <v>744.6062710206434</v>
+        <v>544.1176027054732</v>
       </c>
       <c r="X16" t="n">
-        <v>744.6062710206434</v>
+        <v>341.3343853918261</v>
       </c>
       <c r="Y16" t="n">
-        <v>549.0200254614832</v>
+        <v>145.7481398326661</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>1869.048734237821</v>
       </c>
       <c r="C17" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E17" t="n">
         <v>1006.69219152546</v>
@@ -5507,16 +5507,16 @@
         <v>345.6907875499987</v>
       </c>
       <c r="H17" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I17" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J17" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K17" t="n">
-        <v>658.1763815223503</v>
+        <v>658.17638152235</v>
       </c>
       <c r="L17" t="n">
         <v>1205.679240092235</v>
@@ -5540,16 +5540,16 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S17" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T17" t="n">
         <v>3455.459806291491</v>
       </c>
       <c r="U17" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V17" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W17" t="n">
         <v>2768.59373910579</v>
@@ -5592,25 +5592,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J18" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K18" t="n">
-        <v>399.7270172373158</v>
+        <v>254.8646126176074</v>
       </c>
       <c r="L18" t="n">
-        <v>841.8587361515173</v>
+        <v>549.2569667768709</v>
       </c>
       <c r="M18" t="n">
-        <v>1477.84204486569</v>
+        <v>1185.240275491043</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.816002121468</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O18" t="n">
-        <v>2216.96817800723</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P18" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.936419551312</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>467.1197331511272</v>
+        <v>550.1773711940706</v>
       </c>
       <c r="C19" t="n">
-        <v>381.7368587009018</v>
+        <v>464.7944967438452</v>
       </c>
       <c r="D19" t="n">
-        <v>333.8713807044794</v>
+        <v>398.231165809191</v>
       </c>
       <c r="E19" t="n">
         <v>333.8713807044794</v>
@@ -5671,22 +5671,22 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5105320125874</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K19" t="n">
-        <v>317.6953254278775</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L19" t="n">
         <v>582.1747424683948</v>
       </c>
       <c r="M19" t="n">
-        <v>866.9687724192443</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N19" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O19" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P19" t="n">
         <v>1611.737284042549</v>
@@ -5695,28 +5695,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R19" t="n">
-        <v>1695.782222838228</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.626845310388</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T19" t="n">
-        <v>1429.485151888527</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U19" t="n">
-        <v>1223.885443877354</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V19" t="n">
-        <v>1052.754264149149</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W19" t="n">
-        <v>846.8904025898698</v>
+        <v>799.2732549399495</v>
       </c>
       <c r="X19" t="n">
-        <v>702.4541601695339</v>
+        <v>654.8370125196137</v>
       </c>
       <c r="Y19" t="n">
-        <v>565.2148895036853</v>
+        <v>648.2725275466288</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E20" t="n">
-        <v>1006.692191525459</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F20" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G20" t="n">
-        <v>345.6907875499983</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H20" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I20" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J20" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K20" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L20" t="n">
         <v>1205.679240092235</v>
@@ -5783,19 +5783,19 @@
         <v>3455.459806291491</v>
       </c>
       <c r="U20" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V20" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W20" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X20" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y20" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J21" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K21" t="n">
-        <v>341.4065580211426</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L21" t="n">
-        <v>841.8587361515173</v>
+        <v>650.0054335400104</v>
       </c>
       <c r="M21" t="n">
-        <v>1477.84204486569</v>
+        <v>1285.988742254183</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.816002121468</v>
+        <v>1954.511650110079</v>
       </c>
       <c r="O21" t="n">
-        <v>2216.96817800723</v>
+        <v>2109.740129911879</v>
       </c>
       <c r="P21" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q21" t="n">
         <v>2657.936419551312</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>419.5025855012076</v>
+        <v>486.8407321738417</v>
       </c>
       <c r="C22" t="n">
-        <v>398.2311658091909</v>
+        <v>401.4578577236163</v>
       </c>
       <c r="D22" t="n">
-        <v>398.2311658091909</v>
+        <v>334.8945267889621</v>
       </c>
       <c r="E22" t="n">
-        <v>333.8713807044793</v>
+        <v>270.5347416842506</v>
       </c>
       <c r="F22" t="n">
-        <v>270.5347416842505</v>
+        <v>270.5347416842506</v>
       </c>
       <c r="G22" t="n">
         <v>185.4658039375075</v>
@@ -5917,13 +5917,13 @@
         <v>582.1747424683949</v>
       </c>
       <c r="M22" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192443</v>
       </c>
       <c r="N22" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O22" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P22" t="n">
         <v>1611.737284042549</v>
@@ -5944,16 +5944,16 @@
         <v>1176.268296227434</v>
       </c>
       <c r="V22" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W22" t="n">
-        <v>799.2732549399495</v>
+        <v>866.6114016125848</v>
       </c>
       <c r="X22" t="n">
-        <v>654.8370125196137</v>
+        <v>722.175159192249</v>
       </c>
       <c r="Y22" t="n">
-        <v>517.5977418537657</v>
+        <v>584.9358885263998</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>679.2595952135341</v>
       </c>
       <c r="G23" t="n">
-        <v>345.6907875499989</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H23" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I23" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J23" t="n">
-        <v>258.9898176069159</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K23" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L23" t="n">
         <v>1205.679240092235</v>
@@ -6002,10 +6002,10 @@
         <v>2452.791422191916</v>
       </c>
       <c r="O23" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P23" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q23" t="n">
         <v>3660.300781940293</v>
@@ -6014,7 +6014,7 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S23" t="n">
-        <v>3586.856658284236</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T23" t="n">
         <v>3455.459806291491</v>
@@ -6054,37 +6054,37 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G24" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H24" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I24" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J24" t="n">
-        <v>73.20601563880585</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K24" t="n">
-        <v>341.4065580211426</v>
+        <v>254.8646126176074</v>
       </c>
       <c r="L24" t="n">
-        <v>841.8587361515173</v>
+        <v>549.2569667768709</v>
       </c>
       <c r="M24" t="n">
-        <v>1477.84204486569</v>
+        <v>1185.240275491043</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.816002121468</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O24" t="n">
-        <v>2216.96817800723</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P24" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q24" t="n">
         <v>2657.936419551312</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>550.1773711940709</v>
+        <v>550.1773711940705</v>
       </c>
       <c r="C25" t="n">
-        <v>464.7944967438456</v>
+        <v>464.7944967438451</v>
       </c>
       <c r="D25" t="n">
-        <v>398.2311658091915</v>
+        <v>398.2311658091909</v>
       </c>
       <c r="E25" t="n">
-        <v>333.87138070448</v>
+        <v>333.8713807044794</v>
       </c>
       <c r="F25" t="n">
-        <v>270.5347416842512</v>
+        <v>270.5347416842506</v>
       </c>
       <c r="G25" t="n">
         <v>185.4658039375075</v>
       </c>
       <c r="H25" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I25" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J25" t="n">
         <v>136.5105320125876</v>
       </c>
       <c r="K25" t="n">
-        <v>317.6953254278779</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L25" t="n">
-        <v>582.1747424683952</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9687724192449</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N25" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O25" t="n">
         <v>1406.224749455342</v>
@@ -6169,28 +6169,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R25" t="n">
-        <v>1695.782222838228</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S25" t="n">
-        <v>1571.626845310388</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T25" t="n">
-        <v>1429.485151888528</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U25" t="n">
-        <v>1306.943081920298</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V25" t="n">
-        <v>1135.811902192092</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W25" t="n">
-        <v>929.9480406328134</v>
+        <v>799.2732549399498</v>
       </c>
       <c r="X25" t="n">
-        <v>785.5117982124776</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y25" t="n">
-        <v>648.272527546629</v>
+        <v>648.2725275466286</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237823</v>
       </c>
       <c r="C26" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775093</v>
       </c>
       <c r="D26" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646024</v>
       </c>
       <c r="E26" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F26" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135354</v>
       </c>
       <c r="G26" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875500001</v>
       </c>
       <c r="H26" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551415</v>
       </c>
       <c r="I26" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880589</v>
       </c>
       <c r="J26" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069172</v>
       </c>
       <c r="K26" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223509</v>
       </c>
       <c r="L26" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M26" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N26" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O26" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219485</v>
       </c>
       <c r="P26" t="n">
-        <v>3418.758763931393</v>
+        <v>3418.758763931394</v>
       </c>
       <c r="Q26" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940295</v>
       </c>
       <c r="R26" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940295</v>
       </c>
       <c r="S26" t="n">
-        <v>3586.856658284236</v>
+        <v>3586.856658284238</v>
       </c>
       <c r="T26" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291493</v>
       </c>
       <c r="U26" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764114</v>
       </c>
       <c r="V26" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898225</v>
       </c>
       <c r="W26" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105792</v>
       </c>
       <c r="X26" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322394</v>
       </c>
       <c r="Y26" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824264</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I27" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880589</v>
       </c>
       <c r="J27" t="n">
-        <v>73.20601563880587</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K27" t="n">
-        <v>341.4065580211426</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L27" t="n">
-        <v>841.8587361515173</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M27" t="n">
-        <v>1477.84204486569</v>
+        <v>1269.865530007199</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.816002121468</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O27" t="n">
-        <v>2216.96817800723</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P27" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q27" t="n">
         <v>2657.936419551312</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>465.1084334473273</v>
+        <v>550.1773711940705</v>
       </c>
       <c r="C28" t="n">
-        <v>379.725558997102</v>
+        <v>464.7944967438449</v>
       </c>
       <c r="D28" t="n">
-        <v>313.1622280624479</v>
+        <v>398.2311658091907</v>
       </c>
       <c r="E28" t="n">
-        <v>248.8024429577363</v>
+        <v>333.8713807044791</v>
       </c>
       <c r="F28" t="n">
-        <v>185.4658039375075</v>
+        <v>270.5347416842503</v>
       </c>
       <c r="G28" t="n">
-        <v>185.4658039375075</v>
+        <v>185.4658039375072</v>
       </c>
       <c r="H28" t="n">
-        <v>114.627538469752</v>
+        <v>114.6275384697521</v>
       </c>
       <c r="I28" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880589</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5105320125875</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K28" t="n">
         <v>317.6953254278776</v>
       </c>
       <c r="L28" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M28" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N28" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O28" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P28" t="n">
         <v>1611.737284042549</v>
@@ -6409,25 +6409,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S28" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T28" t="n">
-        <v>1427.473852184728</v>
+        <v>1414.447633578913</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.874144173554</v>
+        <v>1208.847925567739</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.742964445349</v>
+        <v>1037.716745839534</v>
       </c>
       <c r="W28" t="n">
-        <v>844.8791028860696</v>
+        <v>831.8528842802549</v>
       </c>
       <c r="X28" t="n">
-        <v>700.4428604657338</v>
+        <v>687.4166418599191</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.2035897998854</v>
+        <v>550.1773711940705</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F29" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135335</v>
       </c>
       <c r="G29" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499983</v>
       </c>
       <c r="H29" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I29" t="n">
         <v>73.20601563880587</v>
@@ -6482,7 +6482,7 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q29" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="R29" t="n">
         <v>3660.300781940293</v>
@@ -6494,16 +6494,16 @@
         <v>3455.459806291491</v>
       </c>
       <c r="U29" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V29" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W29" t="n">
         <v>2768.59373910579</v>
       </c>
       <c r="X29" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y29" t="n">
         <v>2172.095265824261</v>
@@ -6540,25 +6540,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J30" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K30" t="n">
-        <v>254.8646126176074</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L30" t="n">
-        <v>755.3167907479822</v>
+        <v>367.3097855513993</v>
       </c>
       <c r="M30" t="n">
-        <v>1391.300099462154</v>
+        <v>1003.293094265572</v>
       </c>
       <c r="N30" t="n">
-        <v>1585.274056717932</v>
+        <v>1671.816002121468</v>
       </c>
       <c r="O30" t="n">
-        <v>2130.426232603694</v>
+        <v>2216.96817800723</v>
       </c>
       <c r="P30" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q30" t="n">
         <v>2657.936419551312</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>550.1773711940704</v>
+        <v>550.177371194071</v>
       </c>
       <c r="C31" t="n">
-        <v>464.794496743845</v>
+        <v>464.7944967438456</v>
       </c>
       <c r="D31" t="n">
-        <v>398.2311658091909</v>
+        <v>398.2311658091914</v>
       </c>
       <c r="E31" t="n">
-        <v>333.8713807044793</v>
+        <v>333.8713807044798</v>
       </c>
       <c r="F31" t="n">
-        <v>270.5347416842505</v>
+        <v>270.5347416842509</v>
       </c>
       <c r="G31" t="n">
-        <v>185.4658039375075</v>
+        <v>185.4658039375078</v>
       </c>
       <c r="H31" t="n">
-        <v>114.627538469752</v>
+        <v>114.6275384697522</v>
       </c>
       <c r="I31" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J31" t="n">
-        <v>136.510532012588</v>
+        <v>136.5105320125874</v>
       </c>
       <c r="K31" t="n">
-        <v>317.6953254278781</v>
+        <v>317.6953254278774</v>
       </c>
       <c r="L31" t="n">
-        <v>582.1747424683954</v>
+        <v>582.1747424683947</v>
       </c>
       <c r="M31" t="n">
-        <v>866.9687724192449</v>
+        <v>866.9687724192443</v>
       </c>
       <c r="N31" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O31" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P31" t="n">
         <v>1611.737284042549</v>
@@ -6646,25 +6646,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S31" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T31" t="n">
-        <v>1512.542789931471</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U31" t="n">
-        <v>1306.943081920297</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V31" t="n">
-        <v>1135.811902192092</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W31" t="n">
-        <v>929.948040632813</v>
+        <v>799.2732549399486</v>
       </c>
       <c r="X31" t="n">
-        <v>785.5117982124773</v>
+        <v>785.5117982124777</v>
       </c>
       <c r="Y31" t="n">
-        <v>648.2725275466285</v>
+        <v>648.2725275466292</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E32" t="n">
         <v>1006.69219152546</v>
@@ -6689,19 +6689,19 @@
         <v>679.2595952135339</v>
       </c>
       <c r="G32" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H32" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I32" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J32" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K32" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L32" t="n">
         <v>1205.679240092235</v>
@@ -6719,7 +6719,7 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q32" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R32" t="n">
         <v>3660.300781940293</v>
@@ -6731,19 +6731,19 @@
         <v>3455.459806291491</v>
       </c>
       <c r="U32" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V32" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W32" t="n">
         <v>2768.59373910579</v>
       </c>
       <c r="X32" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y32" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J33" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K33" t="n">
-        <v>448.7081841161897</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L33" t="n">
-        <v>949.1603622465644</v>
+        <v>271.2266688748132</v>
       </c>
       <c r="M33" t="n">
-        <v>1585.143670960737</v>
+        <v>907.2099775889855</v>
       </c>
       <c r="N33" t="n">
-        <v>1779.117628216515</v>
+        <v>1575.732885444882</v>
       </c>
       <c r="O33" t="n">
-        <v>2324.269804102277</v>
+        <v>2120.885061330644</v>
       </c>
       <c r="P33" t="n">
         <v>2429.521278084463</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>464.7944967438451</v>
+        <v>483.6140402594162</v>
       </c>
       <c r="C34" t="n">
-        <v>464.7944967438451</v>
+        <v>398.2311658091909</v>
       </c>
       <c r="D34" t="n">
         <v>398.2311658091909</v>
       </c>
       <c r="E34" t="n">
-        <v>333.8713807044794</v>
+        <v>333.8713807044793</v>
       </c>
       <c r="F34" t="n">
-        <v>270.5347416842506</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="G34" t="n">
-        <v>185.4658039375076</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H34" t="n">
         <v>114.627538469752</v>
@@ -6856,22 +6856,22 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125875</v>
       </c>
       <c r="K34" t="n">
         <v>317.6953254278776</v>
       </c>
       <c r="L34" t="n">
-        <v>582.1747424683947</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M34" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N34" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O34" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P34" t="n">
         <v>1611.737284042549</v>
@@ -6883,25 +6883,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S34" t="n">
-        <v>1569.301608903107</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T34" t="n">
-        <v>1427.159915481245</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U34" t="n">
-        <v>1221.560207470072</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V34" t="n">
-        <v>1050.429027741867</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W34" t="n">
-        <v>844.5651661825875</v>
+        <v>799.2732549399497</v>
       </c>
       <c r="X34" t="n">
-        <v>700.1289237622518</v>
+        <v>654.8370125196138</v>
       </c>
       <c r="Y34" t="n">
-        <v>562.8896530964033</v>
+        <v>517.5977418537653</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6935,10 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J35" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K35" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L35" t="n">
         <v>1205.679240092235</v>
@@ -6962,16 +6962,16 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S35" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T35" t="n">
         <v>3455.459806291491</v>
       </c>
       <c r="U35" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V35" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W35" t="n">
         <v>2768.59373910579</v>
@@ -7014,22 +7014,22 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J36" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K36" t="n">
-        <v>516.6851972600602</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L36" t="n">
-        <v>1017.137375390435</v>
+        <v>271.2266688748132</v>
       </c>
       <c r="M36" t="n">
-        <v>1192.072670992107</v>
+        <v>907.2099775889855</v>
       </c>
       <c r="N36" t="n">
-        <v>1463.839487262977</v>
+        <v>1575.732885444882</v>
       </c>
       <c r="O36" t="n">
-        <v>2008.991663148739</v>
+        <v>2120.885061330644</v>
       </c>
       <c r="P36" t="n">
         <v>2429.521278084463</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>550.17737119407</v>
+        <v>419.5025855012075</v>
       </c>
       <c r="C37" t="n">
-        <v>464.7944967438447</v>
+        <v>419.5025855012075</v>
       </c>
       <c r="D37" t="n">
-        <v>398.2311658091906</v>
+        <v>398.2311658091909</v>
       </c>
       <c r="E37" t="n">
-        <v>333.8713807044791</v>
+        <v>333.8713807044793</v>
       </c>
       <c r="F37" t="n">
-        <v>270.5347416842504</v>
+        <v>270.5347416842506</v>
       </c>
       <c r="G37" t="n">
-        <v>185.4658039375074</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H37" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I37" t="n">
         <v>73.20601563880587</v>
@@ -7096,49 +7096,49 @@
         <v>136.5105320125877</v>
       </c>
       <c r="K37" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L37" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M37" t="n">
-        <v>866.9687724192449</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N37" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O37" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P37" t="n">
-        <v>1611.73728404255</v>
+        <v>1611.737284042549</v>
       </c>
       <c r="Q37" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R37" t="n">
-        <v>1648.165075188309</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S37" t="n">
-        <v>1524.009697660469</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T37" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U37" t="n">
-        <v>1176.268296227435</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V37" t="n">
-        <v>1005.13711649923</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W37" t="n">
-        <v>799.2732549399499</v>
+        <v>799.2732549399495</v>
       </c>
       <c r="X37" t="n">
-        <v>785.5117982124765</v>
+        <v>654.8370125196138</v>
       </c>
       <c r="Y37" t="n">
-        <v>648.2725275466281</v>
+        <v>517.5977418537656</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F38" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G38" t="n">
-        <v>345.6907875499983</v>
+        <v>345.6907875499989</v>
       </c>
       <c r="H38" t="n">
         <v>110.6693538551413</v>
@@ -7211,7 +7211,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W38" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X38" t="n">
         <v>2478.681289322392</v>
@@ -7251,25 +7251,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J39" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K39" t="n">
-        <v>448.7081841161897</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L39" t="n">
-        <v>949.1603622465644</v>
+        <v>638.3586107252377</v>
       </c>
       <c r="M39" t="n">
-        <v>1585.143670960737</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N39" t="n">
-        <v>1779.117628216515</v>
+        <v>1942.864827295306</v>
       </c>
       <c r="O39" t="n">
-        <v>2324.269804102277</v>
+        <v>2488.017003181068</v>
       </c>
       <c r="P39" t="n">
-        <v>2429.521278084463</v>
+        <v>2593.268477163254</v>
       </c>
       <c r="Q39" t="n">
         <v>2657.936419551312</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>419.502585501207</v>
+        <v>419.5025855012071</v>
       </c>
       <c r="C40" t="n">
-        <v>334.1197110509817</v>
+        <v>334.1197110509818</v>
       </c>
       <c r="D40" t="n">
-        <v>292.4498578735333</v>
+        <v>267.5563801163277</v>
       </c>
       <c r="E40" t="n">
-        <v>292.4498578735333</v>
+        <v>203.1965950116161</v>
       </c>
       <c r="F40" t="n">
-        <v>229.1132188533045</v>
+        <v>203.1965950116161</v>
       </c>
       <c r="G40" t="n">
-        <v>144.0442811065614</v>
+        <v>118.1276572648731</v>
       </c>
       <c r="H40" t="n">
-        <v>73.20601563880587</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I40" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J40" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K40" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L40" t="n">
         <v>582.1747424683949</v>
       </c>
       <c r="M40" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N40" t="n">
         <v>1152.372828683041</v>
@@ -7360,7 +7360,7 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T40" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U40" t="n">
         <v>1176.268296227434</v>
@@ -7369,13 +7369,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W40" t="n">
-        <v>799.27325493995</v>
+        <v>799.2732549399495</v>
       </c>
       <c r="X40" t="n">
-        <v>654.8370125196143</v>
+        <v>654.8370125196138</v>
       </c>
       <c r="Y40" t="n">
-        <v>517.5977418537651</v>
+        <v>517.5977418537652</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1308.927135646023</v>
       </c>
       <c r="E41" t="n">
-        <v>1006.692191525461</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F41" t="n">
-        <v>679.2595952135346</v>
+        <v>679.259595213534</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6907875499993</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6693538551417</v>
+        <v>110.6693538551411</v>
       </c>
       <c r="I41" t="n">
         <v>73.20601563880587</v>
@@ -7488,13 +7488,13 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J42" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K42" t="n">
-        <v>516.6851972600602</v>
+        <v>341.2911753664964</v>
       </c>
       <c r="L42" t="n">
-        <v>935.6594247589464</v>
+        <v>474.6114116464465</v>
       </c>
       <c r="M42" t="n">
         <v>1110.594720360619</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>517.5977418537652</v>
+        <v>444.3960632584133</v>
       </c>
       <c r="C43" t="n">
-        <v>432.2148674035403</v>
+        <v>359.0131888081879</v>
       </c>
       <c r="D43" t="n">
-        <v>365.6515364688861</v>
+        <v>292.4498578735335</v>
       </c>
       <c r="E43" t="n">
-        <v>301.2917513641746</v>
+        <v>292.4498578735335</v>
       </c>
       <c r="F43" t="n">
-        <v>237.9551123439458</v>
+        <v>229.1132188533046</v>
       </c>
       <c r="G43" t="n">
-        <v>152.8861745972027</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H43" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I43" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J43" t="n">
-        <v>136.5105320125873</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K43" t="n">
-        <v>317.6953254278774</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L43" t="n">
-        <v>582.1747424683945</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M43" t="n">
-        <v>866.9687724192443</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N43" t="n">
         <v>1152.372828683041</v>
@@ -7594,25 +7594,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S43" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T43" t="n">
         <v>1381.868004238607</v>
       </c>
       <c r="U43" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V43" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W43" t="n">
-        <v>799.2732549399495</v>
+        <v>799.2732549399489</v>
       </c>
       <c r="X43" t="n">
-        <v>654.8370125196137</v>
+        <v>654.837012519613</v>
       </c>
       <c r="Y43" t="n">
-        <v>517.5977418537652</v>
+        <v>517.5977418537641</v>
       </c>
     </row>
     <row r="44">
@@ -7631,16 +7631,16 @@
         <v>1308.927135646023</v>
       </c>
       <c r="E44" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F44" t="n">
         <v>679.2595952135343</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499991</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I44" t="n">
         <v>73.20601563880587</v>
@@ -7673,25 +7673,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S44" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284237</v>
       </c>
       <c r="T44" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U44" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764113</v>
       </c>
       <c r="V44" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898224</v>
       </c>
       <c r="W44" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X44" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322393</v>
       </c>
       <c r="Y44" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824263</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J45" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K45" t="n">
-        <v>516.6851972600602</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L45" t="n">
-        <v>650.0054335400104</v>
+        <v>271.2266688748132</v>
       </c>
       <c r="M45" t="n">
-        <v>1285.988742254183</v>
+        <v>907.2099775889855</v>
       </c>
       <c r="N45" t="n">
-        <v>1479.962699509961</v>
+        <v>1575.732885444882</v>
       </c>
       <c r="O45" t="n">
-        <v>2025.114875395723</v>
+        <v>2120.885061330644</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.644490331446</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q45" t="n">
         <v>2657.936419551312</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>486.8407321738413</v>
+        <v>550.1773711940709</v>
       </c>
       <c r="C46" t="n">
-        <v>401.457857723616</v>
+        <v>464.7944967438455</v>
       </c>
       <c r="D46" t="n">
-        <v>334.894526788962</v>
+        <v>398.2311658091912</v>
       </c>
       <c r="E46" t="n">
-        <v>270.5347416842505</v>
+        <v>333.8713807044796</v>
       </c>
       <c r="F46" t="n">
-        <v>270.5347416842505</v>
+        <v>270.5347416842508</v>
       </c>
       <c r="G46" t="n">
-        <v>185.4658039375074</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H46" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I46" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J46" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K46" t="n">
         <v>317.6953254278776</v>
       </c>
       <c r="L46" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683947</v>
       </c>
       <c r="M46" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192443</v>
       </c>
       <c r="N46" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O46" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P46" t="n">
         <v>1611.737284042549</v>
@@ -7828,28 +7828,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R46" t="n">
-        <v>1695.782222838228</v>
+        <v>1648.165075188307</v>
       </c>
       <c r="S46" t="n">
-        <v>1571.626845310388</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T46" t="n">
-        <v>1449.206150911242</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U46" t="n">
-        <v>1243.606442900068</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V46" t="n">
-        <v>1072.475263171863</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W46" t="n">
-        <v>866.6114016125839</v>
+        <v>799.2732549399487</v>
       </c>
       <c r="X46" t="n">
-        <v>722.1751591922481</v>
+        <v>785.5117982124775</v>
       </c>
       <c r="Y46" t="n">
-        <v>584.9358885263995</v>
+        <v>648.2725275466291</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>7.951459559858918</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>245.915903282572</v>
+        <v>216.6966405963616</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627451</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>7.951459559858918</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>343.043882482368</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.0536532086728</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>311.9307905396478</v>
+        <v>162.6991089690034</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>205.5556822487672</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>216.6966405963616</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>205.5556822487672</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>162.6991089690034</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720747</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>7.951459559858932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>205.5556822487672</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>78.57864546978951</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>97.05365320867287</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>195.8015873723056</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K33" t="n">
-        <v>195.8015873723054</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>205.4391341127608</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>78.57864546978951</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>205.4391341127608</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928326</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K39" t="n">
-        <v>195.8015873723054</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>44.67607654515092</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>205.439134112761</v>
       </c>
       <c r="L42" t="n">
-        <v>288.5393850696324</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,16 +11385,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>205.4391341127608</v>
       </c>
       <c r="Q45" t="n">
-        <v>193.7912147590979</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>340.3186215224813</v>
+        <v>340.3186215224811</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>92.86277985770961</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.4731875638752</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>302.7979882216085</v>
       </c>
       <c r="W11" t="n">
-        <v>164.8502872356695</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.2836684075273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.8777099334111</v>
+        <v>154.8777099334109</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>123.6612027696861</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>41.95033859250078</v>
+        <v>120.4667777744048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>141.981753513654</v>
       </c>
       <c r="H13" t="n">
-        <v>127.8933879574565</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77081274701516</v>
+        <v>98.77081274701496</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.9044813177993</v>
+        <v>93.21550114953133</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>180.67732889694</v>
       </c>
       <c r="T13" t="n">
-        <v>198.4837816320204</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>261.3072160754402</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>261.5687280880647</v>
+        <v>261.5687280880646</v>
       </c>
       <c r="X13" t="n">
-        <v>200.7553851405109</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.6303831035686</v>
+        <v>193.6303831035684</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>258.327566416008</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>381.9217754931851</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>290.4347245022873</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>94.85220997855042</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.4731875638752</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>226.2032352564838</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>302.7979882216085</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>47.89446689935357</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.877709933411</v>
+        <v>154.8777099334109</v>
       </c>
       <c r="C16" t="n">
-        <v>142.2925508501015</v>
+        <v>142.2925508501014</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>123.6612027696859</v>
       </c>
       <c r="E16" t="n">
-        <v>36.53355673133744</v>
+        <v>121.4796923980427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>120.4667777744048</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>141.981753513654</v>
       </c>
       <c r="H16" t="n">
-        <v>127.8933879574565</v>
+        <v>56.07668500553481</v>
       </c>
       <c r="I16" t="n">
-        <v>98.7708127470151</v>
+        <v>98.77081274701494</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.9044813177993</v>
+        <v>104.9044813177991</v>
       </c>
       <c r="S16" t="n">
-        <v>180.6773288969401</v>
+        <v>180.67732889694</v>
       </c>
       <c r="T16" t="n">
-        <v>198.4837816320203</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>261.3072160754403</v>
+        <v>261.3072160754402</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>200.7553851405109</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>18.51087440884939</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71618725366442</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.14097617342081</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>129.368037835935</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>63.47034021062654</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.8976976253076</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.70327263002652</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>66.66476520590919</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.14097617342082</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.22706166251417</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>129.3680378359348</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>97.11420478903261</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>84.21824836927563</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>45.14978946665885</v>
+        <v>32.25383304690381</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>129.3680378359348</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>129.3680378359363</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>63.4703402106269</v>
       </c>
       <c r="C34" t="n">
-        <v>84.52904570572308</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>44.83899213021208</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>44.83899213021115</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>129.3680378359337</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.64454297963366</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>63.71618725366442</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>66.6647652059081</v>
       </c>
       <c r="I40" t="n">
-        <v>41.00730760263664</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.11420478903254</v>
+        <v>24.64454297963532</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>63.71618725366449</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>32.25383304690174</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.0073076026367</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>2.476099325576797e-12</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.70327263002648</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.1409761734208</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>19.52378903248712</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>129.3680378359359</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782210.4690489544</v>
+        <v>782210.4690489547</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782210.4690489545</v>
+        <v>782210.4690489547</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>886781.6878866761</v>
+        <v>886781.6878866758</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>519039.270847066</v>
+        <v>519039.2708470663</v>
       </c>
       <c r="F2" t="n">
-        <v>519039.270847066</v>
+        <v>519039.2708470663</v>
       </c>
       <c r="G2" t="n">
-        <v>593004.279293261</v>
+        <v>593004.2792932609</v>
       </c>
       <c r="H2" t="n">
-        <v>593004.2792932607</v>
+        <v>593004.2792932609</v>
       </c>
       <c r="I2" t="n">
+        <v>593004.2792932608</v>
+      </c>
+      <c r="J2" t="n">
+        <v>593004.2792932608</v>
+      </c>
+      <c r="K2" t="n">
+        <v>593004.2792932608</v>
+      </c>
+      <c r="L2" t="n">
+        <v>593004.2792932608</v>
+      </c>
+      <c r="M2" t="n">
+        <v>593004.2792932609</v>
+      </c>
+      <c r="N2" t="n">
+        <v>593004.2792932603</v>
+      </c>
+      <c r="O2" t="n">
+        <v>593004.2792932609</v>
+      </c>
+      <c r="P2" t="n">
         <v>593004.2792932605</v>
-      </c>
-      <c r="J2" t="n">
-        <v>593004.2792932607</v>
-      </c>
-      <c r="K2" t="n">
-        <v>593004.2792932607</v>
-      </c>
-      <c r="L2" t="n">
-        <v>593004.2792932605</v>
-      </c>
-      <c r="M2" t="n">
-        <v>593004.2792932604</v>
-      </c>
-      <c r="N2" t="n">
-        <v>593004.2792932607</v>
-      </c>
-      <c r="O2" t="n">
-        <v>593004.279293261</v>
-      </c>
-      <c r="P2" t="n">
-        <v>593004.2792932608</v>
       </c>
     </row>
     <row r="3">
@@ -26375,25 +26375,25 @@
         <v>691230.6639893665</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46210.80411550277</v>
+        <v>46210.80411550263</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>83023.35879792729</v>
+        <v>83023.35879792742</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46210.80411550277</v>
+        <v>46210.80411550269</v>
       </c>
       <c r="M3" t="n">
         <v>167978.6741701941</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19963.41619882099</v>
+        <v>19963.41619882104</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
-        <v>74344.62154449173</v>
+        <v>74344.62154449194</v>
       </c>
       <c r="F4" t="n">
-        <v>74344.62154449178</v>
+        <v>74344.62154449192</v>
       </c>
       <c r="G4" t="n">
         <v>132717.2846572828</v>
@@ -26439,10 +26439,10 @@
         <v>132717.2846572828</v>
       </c>
       <c r="J4" t="n">
-        <v>132717.2846572828</v>
+        <v>132717.2846572827</v>
       </c>
       <c r="K4" t="n">
-        <v>132717.2846572828</v>
+        <v>132717.2846572827</v>
       </c>
       <c r="L4" t="n">
         <v>132717.2846572828</v>
@@ -26454,10 +26454,10 @@
         <v>132717.2846572828</v>
       </c>
       <c r="O4" t="n">
-        <v>132717.2846572828</v>
+        <v>132717.2846572827</v>
       </c>
       <c r="P4" t="n">
-        <v>132717.2846572828</v>
+        <v>132717.2846572827</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70487.90653947927</v>
+        <v>70487.90653947929</v>
       </c>
       <c r="F5" t="n">
-        <v>70487.90653947927</v>
+        <v>70487.90653947929</v>
       </c>
       <c r="G5" t="n">
+        <v>75344.02665346202</v>
+      </c>
+      <c r="H5" t="n">
+        <v>75344.02665346202</v>
+      </c>
+      <c r="I5" t="n">
         <v>75344.02665346203</v>
-      </c>
-      <c r="H5" t="n">
-        <v>75344.02665346203</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75344.02665346202</v>
       </c>
       <c r="J5" t="n">
         <v>75344.02665346203</v>
       </c>
       <c r="K5" t="n">
-        <v>75344.02665346203</v>
+        <v>75344.02665346202</v>
       </c>
       <c r="L5" t="n">
         <v>75344.02665346203</v>
@@ -26506,10 +26506,10 @@
         <v>75344.02665346203</v>
       </c>
       <c r="O5" t="n">
-        <v>75344.02665346203</v>
+        <v>75344.02665346202</v>
       </c>
       <c r="P5" t="n">
-        <v>75344.02665346203</v>
+        <v>75344.02665346202</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>136874.0512943018</v>
       </c>
       <c r="C6" t="n">
-        <v>217643.4828258496</v>
+        <v>217643.4828258497</v>
       </c>
       <c r="D6" t="n">
-        <v>217643.4828258495</v>
+        <v>217643.4828258494</v>
       </c>
       <c r="E6" t="n">
-        <v>-317023.9212262715</v>
+        <v>-317286.7350618043</v>
       </c>
       <c r="F6" t="n">
-        <v>374206.7427630949</v>
+        <v>373943.9289275623</v>
       </c>
       <c r="G6" t="n">
-        <v>338732.1638670135</v>
+        <v>338724.4017847433</v>
       </c>
       <c r="H6" t="n">
-        <v>384942.9679825159</v>
+        <v>384935.2059002459</v>
       </c>
       <c r="I6" t="n">
-        <v>384942.9679825158</v>
+        <v>384935.2059002458</v>
       </c>
       <c r="J6" t="n">
-        <v>301919.6091845886</v>
+        <v>301911.8471023185</v>
       </c>
       <c r="K6" t="n">
-        <v>384942.9679825159</v>
+        <v>384935.2059002459</v>
       </c>
       <c r="L6" t="n">
-        <v>338732.1638670129</v>
+        <v>338724.4017847432</v>
       </c>
       <c r="M6" t="n">
-        <v>216964.2938123215</v>
+        <v>216956.5317300519</v>
       </c>
       <c r="N6" t="n">
-        <v>384942.9679825158</v>
+        <v>384935.2059002453</v>
       </c>
       <c r="O6" t="n">
-        <v>364979.5517836952</v>
+        <v>364971.7897014249</v>
       </c>
       <c r="P6" t="n">
-        <v>384942.9679825159</v>
+        <v>384935.2059002456</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="F2" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="G2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="H2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="I2" t="n">
         <v>82.71777539290476</v>
       </c>
       <c r="J2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="K2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="L2" t="n">
         <v>82.71777539290476</v>
       </c>
       <c r="M2" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N2" t="n">
         <v>82.71777539290476</v>
       </c>
       <c r="O2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="P2" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634614</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="F3" t="n">
         <v>585.0208306634614</v>
@@ -26808,10 +26808,10 @@
         <v>915.0751954850733</v>
       </c>
       <c r="I4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="J4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850737</v>
       </c>
       <c r="K4" t="n">
         <v>915.0751954850733</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.76350514437846</v>
+        <v>57.76350514437829</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437846</v>
+        <v>57.76350514437836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852624</v>
+        <v>24.9542702485263</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634614</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437846</v>
+        <v>57.76350514437829</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852637</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>364.436345787192</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>259.542103988905</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>57.11111008915669</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27512,13 +27512,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>77.6452026817131</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>341.4540909391266</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>106.0533296882461</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>235.1507976673901</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>42.30927575296769</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27929,22 +27929,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>13.36008480071791</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>40.20051258655923</v>
       </c>
     </row>
     <row r="10">
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="C11" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="D11" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="E11" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="F11" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="G11" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="H11" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="I11" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.135189281195267</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S11" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="T11" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="U11" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="V11" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="W11" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="X11" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="C13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="D13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="F13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="G13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="H13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="I13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="J13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="K13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="L13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="M13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="N13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="O13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="P13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="R13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="S13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="T13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="U13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="V13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="W13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="X13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.95427024852624</v>
+        <v>24.95427024852644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="C14" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="D14" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="E14" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="F14" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="G14" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="H14" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="I14" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S14" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="T14" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="U14" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="V14" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="W14" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="X14" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="C16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="D16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="E16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="F16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="G16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="H16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="I16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="J16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="K16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="L16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="M16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="N16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="O16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="P16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="R16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="S16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="T16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="U16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="V16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="W16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="X16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.9542702485263</v>
+        <v>24.95427024852644</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="C17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="D17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="E17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="F17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="G17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="H17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="I17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="T17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="U17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="V17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="W17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="X17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="C19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="D19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="E19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="F19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="H19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="I19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="J19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="K19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="L19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="M19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="N19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="O19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="P19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="R19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="S19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="T19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="U19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="V19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="W19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="X19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="C20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="D20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="E20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="F20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="G20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="H20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="I20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="T20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="U20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="V20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="W20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="X20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="C22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="D22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="E22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="F22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="G22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="H22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="I22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="J22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="K22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="L22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="M22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="N22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="O22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="P22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="R22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="S22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="T22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="U22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="V22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="W22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="X22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
     </row>
     <row r="23">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="K28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="L28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="M28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="N28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="O28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="P28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="R28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="S28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="K31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="L31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="M31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="N31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="O31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="P31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="R31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="S31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.71777539290481</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="38">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="K43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="L43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="M43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="N43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="O43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="P43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="R43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="S43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C44" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D44" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E44" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F44" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G44" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H44" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I44" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S44" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T44" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U44" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V44" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W44" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X44" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="K46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="L46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="M46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="N46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="O46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="P46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="R46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="S46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.71777539290477</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
   </sheetData>
@@ -31756,13 +31756,13 @@
         <v>24.08580736495345</v>
       </c>
       <c r="I11" t="n">
-        <v>90.66940934332905</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J11" t="n">
         <v>199.6096953830069</v>
       </c>
       <c r="K11" t="n">
-        <v>299.1631899035469</v>
+        <v>299.1631899035468</v>
       </c>
       <c r="L11" t="n">
         <v>371.1383908941676</v>
@@ -31774,10 +31774,10 @@
         <v>419.6451431853591</v>
       </c>
       <c r="O11" t="n">
-        <v>396.2590089746665</v>
+        <v>396.2590089746664</v>
       </c>
       <c r="P11" t="n">
-        <v>338.1978963836948</v>
+        <v>338.1978963836947</v>
       </c>
       <c r="Q11" t="n">
         <v>253.9725355871713</v>
@@ -31786,13 +31786,13 @@
         <v>147.7339286599544</v>
       </c>
       <c r="S11" t="n">
-        <v>53.59261177384374</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T11" t="n">
         <v>10.29519069840925</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1881474028264397</v>
+        <v>0.1881474028264396</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I12" t="n">
-        <v>43.32465585573748</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J12" t="n">
         <v>118.8861671068078</v>
       </c>
       <c r="K12" t="n">
-        <v>203.1953954956289</v>
+        <v>203.1953954956288</v>
       </c>
       <c r="L12" t="n">
-        <v>273.2212851131572</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M12" t="n">
         <v>318.8363527115864</v>
       </c>
       <c r="N12" t="n">
-        <v>327.2750022406849</v>
+        <v>327.2750022406848</v>
       </c>
       <c r="O12" t="n">
-        <v>299.3926886886867</v>
+        <v>299.3926886886866</v>
       </c>
       <c r="P12" t="n">
-        <v>240.2890275983565</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q12" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R12" t="n">
-        <v>78.12787621577324</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S12" t="n">
-        <v>23.37323790433734</v>
+        <v>23.37323790433733</v>
       </c>
       <c r="T12" t="n">
-        <v>5.072020220563404</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08278596660332005</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,19 +31911,19 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H13" t="n">
-        <v>9.379514301456814</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I13" t="n">
-        <v>31.7253919317169</v>
+        <v>31.72539193171689</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58536065688097</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K13" t="n">
         <v>122.5666592767055</v>
       </c>
       <c r="L13" t="n">
-        <v>156.843125650332</v>
+        <v>156.8431256503319</v>
       </c>
       <c r="M13" t="n">
         <v>165.3690849693453</v>
@@ -31938,19 +31938,19 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.33814543018268</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R13" t="n">
-        <v>47.43463981084392</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S13" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T13" t="n">
-        <v>4.507537547734865</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05754303252427496</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>187.6604060283944</v>
+        <v>187.6604060283943</v>
       </c>
       <c r="K11" t="n">
-        <v>403.2187514297311</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L11" t="n">
         <v>553.0331904746308</v>
       </c>
       <c r="M11" t="n">
-        <v>632.1302708474111</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N11" t="n">
         <v>627.5790040007523</v>
@@ -35425,7 +35425,7 @@
         <v>546.9609788157251</v>
       </c>
       <c r="P11" t="n">
-        <v>428.7636087999079</v>
+        <v>428.7636087999078</v>
       </c>
       <c r="Q11" t="n">
         <v>243.9818363726265</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K12" t="n">
-        <v>329.8191935338485</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L12" t="n">
-        <v>505.5072506367422</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M12" t="n">
-        <v>176.7023187895681</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N12" t="n">
         <v>675.2756645009051</v>
       </c>
       <c r="O12" t="n">
-        <v>550.6587635209718</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P12" t="n">
-        <v>352.2305234665982</v>
+        <v>323.0112607803878</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.6450773821802</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.180450788734433</v>
+        <v>6.180450788734618</v>
       </c>
       <c r="K13" t="n">
-        <v>125.2514376993489</v>
+        <v>125.2514376993491</v>
       </c>
       <c r="L13" t="n">
-        <v>209.3874211591743</v>
+        <v>209.3874211591745</v>
       </c>
       <c r="M13" t="n">
-        <v>229.9072321797121</v>
+        <v>229.9072321797123</v>
       </c>
       <c r="N13" t="n">
-        <v>230.5234203746081</v>
+        <v>230.5234203746083</v>
       </c>
       <c r="O13" t="n">
-        <v>198.6525764438036</v>
+        <v>198.6525764438038</v>
       </c>
       <c r="P13" t="n">
-        <v>149.8249136305785</v>
+        <v>149.8249136305787</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.13037242701453</v>
+        <v>27.1303724270147</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>627.5790040007523</v>
       </c>
       <c r="O14" t="n">
-        <v>546.9609788157248</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P14" t="n">
         <v>428.7636087999079</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K15" t="n">
         <v>65.35395652126988</v>
       </c>
       <c r="L15" t="n">
-        <v>134.666905333283</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M15" t="n">
-        <v>642.4073825395681</v>
+        <v>176.7023187895681</v>
       </c>
       <c r="N15" t="n">
-        <v>675.2756645009051</v>
+        <v>538.9771726397196</v>
       </c>
       <c r="O15" t="n">
         <v>550.6587635209718</v>
@@ -35744,7 +35744,7 @@
         <v>424.7773888239634</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.698730590853</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.18045078873449</v>
+        <v>6.180450788734628</v>
       </c>
       <c r="K16" t="n">
-        <v>125.2514376993489</v>
+        <v>125.2514376993491</v>
       </c>
       <c r="L16" t="n">
-        <v>209.3874211591744</v>
+        <v>209.3874211591745</v>
       </c>
       <c r="M16" t="n">
-        <v>229.9072321797122</v>
+        <v>229.9072321797123</v>
       </c>
       <c r="N16" t="n">
-        <v>230.5234203746082</v>
+        <v>230.5234203746083</v>
       </c>
       <c r="O16" t="n">
-        <v>198.6525764438037</v>
+        <v>198.6525764438038</v>
       </c>
       <c r="P16" t="n">
-        <v>149.8249136305786</v>
+        <v>149.8249136305787</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.13037242701459</v>
+        <v>27.13037242701473</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K18" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L18" t="n">
-        <v>446.5976958729308</v>
+        <v>297.3660143022863</v>
       </c>
       <c r="M18" t="n">
         <v>642.4073825395679</v>
       </c>
       <c r="N18" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O18" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P18" t="n">
         <v>424.7773888239633</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.64507738218018</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.94395593311293</v>
+        <v>63.9439559331129</v>
       </c>
       <c r="K19" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L19" t="n">
         <v>267.1509263035528</v>
@@ -36060,7 +36060,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139299</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>187.6604060283944</v>
+        <v>187.6604060283943</v>
       </c>
       <c r="K20" t="n">
         <v>403.218751429731</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K21" t="n">
-        <v>270.9096387700371</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L21" t="n">
-        <v>505.5072506367421</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M21" t="n">
         <v>642.4073825395679</v>
       </c>
       <c r="N21" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O21" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P21" t="n">
-        <v>424.7773888239633</v>
+        <v>323.0112607803878</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.64507738218018</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.94395593311293</v>
+        <v>63.9439559331129</v>
       </c>
       <c r="K22" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L22" t="n">
         <v>267.1509263035528</v>
@@ -36297,7 +36297,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139299</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K24" t="n">
-        <v>270.9096387700371</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L24" t="n">
-        <v>505.5072506367421</v>
+        <v>297.3660143022863</v>
       </c>
       <c r="M24" t="n">
         <v>642.4073825395679</v>
       </c>
       <c r="N24" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O24" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P24" t="n">
         <v>424.7773888239633</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.64507738218018</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283953</v>
       </c>
       <c r="K26" t="n">
         <v>403.218751429731</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K27" t="n">
-        <v>270.9096387700371</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L27" t="n">
         <v>505.5072506367421</v>
       </c>
       <c r="M27" t="n">
-        <v>642.4073825395679</v>
+        <v>255.2809642593575</v>
       </c>
       <c r="N27" t="n">
         <v>195.9332901573515</v>
@@ -36692,7 +36692,7 @@
         <v>424.7773888239633</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.64507738218018</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.94395593311293</v>
+        <v>63.94395593311286</v>
       </c>
       <c r="K28" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L28" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M28" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N28" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O28" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P28" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>65.35395652126985</v>
       </c>
       <c r="L30" t="n">
-        <v>505.5072506367421</v>
+        <v>231.7205585419558</v>
       </c>
       <c r="M30" t="n">
         <v>642.4073825395679</v>
       </c>
       <c r="N30" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O30" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P30" t="n">
-        <v>302.1162075563318</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q30" t="n">
-        <v>230.7223651180293</v>
+        <v>20.64507738218018</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.94395593311293</v>
+        <v>63.94395593311286</v>
       </c>
       <c r="K31" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L31" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M31" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N31" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O31" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P31" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>261.1555438935752</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L33" t="n">
-        <v>505.5072506367421</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M33" t="n">
         <v>642.4073825395679</v>
       </c>
       <c r="N33" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O33" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P33" t="n">
-        <v>106.3146201840262</v>
+        <v>311.753754296787</v>
       </c>
       <c r="Q33" t="n">
         <v>230.7223651180293</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L36" t="n">
-        <v>505.5072506367421</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M36" t="n">
-        <v>176.702318789568</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N36" t="n">
-        <v>274.511935627141</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O36" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P36" t="n">
-        <v>424.7773888239633</v>
+        <v>311.753754296787</v>
       </c>
       <c r="Q36" t="n">
         <v>230.7223651180293</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>63.94395593311299</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K37" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L37" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M37" t="n">
-        <v>287.6707373240907</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N37" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O37" t="n">
-        <v>256.4160815881822</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P37" t="n">
-        <v>207.5884187749571</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.89387757139308</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>187.6604060283944</v>
+        <v>187.6604060283943</v>
       </c>
       <c r="K38" t="n">
         <v>403.218751429731</v>
@@ -37549,7 +37549,7 @@
         <v>553.0331904746308</v>
       </c>
       <c r="M38" t="n">
-        <v>632.130270847411</v>
+        <v>632.1302708474111</v>
       </c>
       <c r="N38" t="n">
         <v>627.5790040007523</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>261.1555438935752</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L39" t="n">
         <v>505.5072506367421</v>
@@ -37631,7 +37631,7 @@
         <v>642.4073825395679</v>
       </c>
       <c r="N39" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O39" t="n">
         <v>550.6587635209717</v>
@@ -37640,7 +37640,7 @@
         <v>106.3146201840262</v>
       </c>
       <c r="Q39" t="n">
-        <v>230.7223651180293</v>
+        <v>65.3211539273311</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>329.8191935338484</v>
+        <v>270.7930906340309</v>
       </c>
       <c r="L42" t="n">
-        <v>423.2062904029153</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M42" t="n">
-        <v>176.702318789568</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N42" t="n">
         <v>675.2756645009051</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.94395593311293</v>
+        <v>63.94395593311286</v>
       </c>
       <c r="K43" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L43" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M43" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N43" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O43" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P43" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K44" t="n">
         <v>403.218751429731</v>
@@ -38026,7 +38026,7 @@
         <v>632.130270847411</v>
       </c>
       <c r="N44" t="n">
-        <v>627.5790040007524</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O44" t="n">
         <v>546.9609788157251</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L45" t="n">
         <v>134.666905333283</v>
@@ -38105,16 +38105,16 @@
         <v>642.4073825395679</v>
       </c>
       <c r="N45" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O45" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P45" t="n">
-        <v>424.7773888239633</v>
+        <v>311.753754296787</v>
       </c>
       <c r="Q45" t="n">
-        <v>214.4362921412781</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311286</v>
       </c>
       <c r="K46" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L46" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M46" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N46" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O46" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P46" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
